--- a/data/Microplastics_DataPortal_Clean_Morphology.xlsx
+++ b/data/Microplastics_DataPortal_Clean_Morphology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahhapich/Desktop/Microplastic_Data_Portal-main/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EAE275-20E2-4F4F-9859-9705428FA597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A83EE7-B75B-F94F-8350-F2EABD49A1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10020" yWindow="500" windowWidth="10920" windowHeight="11880" xr2:uid="{D401F74E-A2D1-9C4E-9D2D-23BF4F6F8055}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Morphology</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>10.1007/s11783-021-1492-5</t>
+  </si>
+  <si>
+    <t>Films;fragments</t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -730,6 +733,9 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
         <v>20</v>
       </c>
     </row>
